--- a/tests/testsuite.xlsx
+++ b/tests/testsuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACKPEARL COMPUTERS\PycharmProjects\pythonProject\PythonSelFramework\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6D97EB-6DA2-4E85-A4FB-759F3FF814E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5ACF2-3D2D-4329-81A9-7BC650FB3C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TestCase</t>
   </si>
@@ -33,28 +33,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Testcase1</t>
   </si>
   <si>
     <t>shalini.jayakumar03@gmail.com</t>
-  </si>
-  <si>
-    <t>test1234</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Testcase2</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>List1</t>
@@ -452,155 +434,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{729BF979-3EDD-4E8C-A8CD-749E909261D3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{95C02306-31E4-4B9D-9DE1-14677FD30715}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{729BF979-3EDD-4E8C-A8CD-749E909261D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>